--- a/صيدليات دكتور مصطفي طلعت_2026-01-02_19-43.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-02_19-43.xlsx
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>L-CARNITINE 300MG/ML SYRUP 30ML</t>
   </si>
   <si>
     <t>MEGABIO 750 MG 5 F.C. TABS.</t>
@@ -1797,13 +1800,13 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="M38" s="9"/>
       <c r="N38" s="10">
@@ -1829,7 +1832,7 @@
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="10">
@@ -1849,17 +1852,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M40" s="9"/>
       <c r="N40" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1875,17 +1878,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="M41" s="9"/>
       <c r="N41" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1901,17 +1904,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="M42" s="9"/>
       <c r="N42" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1927,17 +1930,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="M43" s="9"/>
       <c r="N43" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1953,17 +1956,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>7.0499999999999998</v>
+        <v>130</v>
       </c>
       <c r="M44" s="9"/>
       <c r="N44" s="10">
-        <v>0.050000000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -1979,17 +1982,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>221.16</v>
+        <v>7.0499999999999998</v>
       </c>
       <c r="M45" s="9"/>
       <c r="N45" s="10">
-        <v>1</v>
+        <v>0.050000000000000003</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2011,11 +2014,11 @@
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>58</v>
+        <v>221.16</v>
       </c>
       <c r="M46" s="9"/>
       <c r="N46" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2037,11 +2040,11 @@
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>160.55000000000001</v>
+        <v>58</v>
       </c>
       <c r="M47" s="9"/>
       <c r="N47" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2057,17 +2060,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>13</v>
+        <v>160.55000000000001</v>
       </c>
       <c r="M48" s="9"/>
       <c r="N48" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2075,7 +2078,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2083,17 +2086,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>192</v>
+        <v>13</v>
       </c>
       <c r="M49" s="9"/>
       <c r="N49" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2109,17 +2112,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>20</v>
+        <v>192</v>
       </c>
       <c r="M50" s="9"/>
       <c r="N50" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2135,17 +2138,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>115.2</v>
+        <v>20</v>
       </c>
       <c r="M51" s="9"/>
       <c r="N51" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2161,17 +2164,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>28.710000000000001</v>
+        <v>115.2</v>
       </c>
       <c r="M52" s="9"/>
       <c r="N52" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2187,13 +2190,13 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>30</v>
+        <v>28.710000000000001</v>
       </c>
       <c r="M53" s="9"/>
       <c r="N53" s="10">
@@ -2213,17 +2216,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>250</v>
+        <v>30</v>
       </c>
       <c r="M54" s="9"/>
       <c r="N54" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2239,17 +2242,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>18</v>
+        <v>250</v>
       </c>
       <c r="M55" s="9"/>
       <c r="N55" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2265,17 +2268,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2283,7 +2286,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2291,17 +2294,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="M57" s="9"/>
       <c r="N57" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2309,7 +2312,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2317,17 +2320,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="M58" s="9"/>
       <c r="N58" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2335,7 +2338,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2343,7 +2346,7 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
@@ -2361,7 +2364,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2369,13 +2372,13 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="M60" s="9"/>
       <c r="N60" s="10">
@@ -2387,7 +2390,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2395,13 +2398,13 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="M61" s="9"/>
       <c r="N61" s="10">
@@ -2421,13 +2424,13 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M62" s="9"/>
       <c r="N62" s="10">
@@ -2439,7 +2442,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2447,17 +2450,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="M63" s="9"/>
       <c r="N63" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2465,7 +2468,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2473,17 +2476,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M64" s="9"/>
       <c r="N64" s="10">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2499,17 +2502,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="M65" s="9"/>
       <c r="N65" s="10">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2525,13 +2528,13 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="M66" s="9"/>
       <c r="N66" s="10">
@@ -2551,17 +2554,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2577,17 +2580,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="M68" s="9"/>
       <c r="N68" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2595,7 +2598,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2603,17 +2606,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M69" s="9"/>
       <c r="N69" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2621,7 +2624,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2629,13 +2632,13 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M70" s="9"/>
       <c r="N70" s="10">
@@ -2647,7 +2650,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2655,17 +2658,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M71" s="9"/>
       <c r="N71" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2681,17 +2684,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="M72" s="9"/>
       <c r="N72" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2707,51 +2710,77 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="M73" s="9"/>
       <c r="N73" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="74" ht="25.5" customHeight="1">
-      <c r="K74" s="11">
-        <v>5571.1700000000001</v>
-      </c>
-      <c r="L74" s="11"/>
-      <c r="M74" s="11"/>
-      <c r="N74" s="11"/>
-    </row>
-    <row r="75" ht="16.5" customHeight="1">
-      <c t="s" r="A75" s="12">
+    <row r="74" ht="24.75" customHeight="1">
+      <c r="A74" s="6">
+        <v>71</v>
+      </c>
+      <c t="s" r="B74" s="7">
         <v>103</v>
       </c>
-      <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c t="s" r="F75" s="13">
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c t="s" r="H74" s="8">
+        <v>90</v>
+      </c>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="9">
+        <v>8</v>
+      </c>
+      <c r="M74" s="9"/>
+      <c r="N74" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" ht="26.25" customHeight="1">
+      <c r="K75" s="11">
+        <v>5641.1700000000001</v>
+      </c>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="11"/>
+    </row>
+    <row r="76" ht="16.5" customHeight="1">
+      <c t="s" r="A76" s="12">
         <v>104</v>
       </c>
-      <c r="G75" s="13"/>
-      <c r="H75" s="14"/>
-      <c t="s" r="I75" s="15">
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c t="s" r="F76" s="13">
         <v>105</v>
       </c>
-      <c r="J75" s="15"/>
-      <c r="K75" s="15"/>
-      <c r="L75" s="15"/>
-      <c r="M75" s="15"/>
-      <c r="N75" s="15"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="14"/>
+      <c t="s" r="I76" s="15">
+        <v>106</v>
+      </c>
+      <c r="J76" s="15"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="15"/>
+      <c r="M76" s="15"/>
+      <c r="N76" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="221">
+  <mergeCells count="224">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2969,10 +2998,13 @@
     <mergeCell ref="B73:G73"/>
     <mergeCell ref="H73:K73"/>
     <mergeCell ref="L73:M73"/>
-    <mergeCell ref="K74:N74"/>
-    <mergeCell ref="A75:E75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="I75:N75"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="A76:E76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="I76:N76"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
